--- a/biology/Biologie cellulaire et moléculaire/Cavine/Cavine.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Cavine/Cavine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les cavines sont les principales protéines structurales contrôlant la formation des cavéoles dans la cellule, en relation avec les protéines cavéolines.
 </t>
@@ -511,13 +523,15 @@
           <t>Types connus</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>La famille des protéines cavines sont:
-la Cavine 1 (aussi nommée PTRF pour Polymerase I and transcript release factor [1]),
-la Cavine 2 (aussi nommée SDPR pour Serum deprivation-response protein [2])
-la Cavine 3 (aussi nommée SRBC pour sdr-related gene product that binds to c-kinase [3])
-et la Cavine 4 (aussi nommée MURC pour muscle-restricted coiled-coil [4])</t>
+la Cavine 1 (aussi nommée PTRF pour Polymerase I and transcript release factor ),
+la Cavine 2 (aussi nommée SDPR pour Serum deprivation-response protein )
+la Cavine 3 (aussi nommée SRBC pour sdr-related gene product that binds to c-kinase )
+et la Cavine 4 (aussi nommée MURC pour muscle-restricted coiled-coil )</t>
         </is>
       </c>
     </row>
@@ -545,7 +559,9 @@
           <t>Fonctions dans la cellule</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La Cavine 1 est le principal régulateur de la formation des cavéoles dans de multiples tissus.
 La Cavine 1 suffit à la formation morphologique des cavéoles dans des cellules manquant de cavéoles mais abondantes en Cavine 1.
